--- a/Przypadki_testowe.xlsx
+++ b/Przypadki_testowe.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="20400" windowHeight="7755"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="20400" windowHeight="7755" tabRatio="623"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="209">
   <si>
     <t>Scenariusz testowy</t>
   </si>
@@ -63,18 +63,9 @@
     <t>Czynności końcowe</t>
   </si>
   <si>
-    <t>Przekierowanie ze strony głównej sklepu do formularza email sklepu</t>
-  </si>
-  <si>
-    <t>Pozostanie na stronie głównej - formularz nie otworzył się</t>
-  </si>
-  <si>
     <t>Negatywny</t>
   </si>
   <si>
-    <t>Celem testu jest przeniesienie użytkownika ze strony głównej do formularza email poprzez kliknięcie na ikonę lub nazwę email</t>
-  </si>
-  <si>
     <t>ANA002</t>
   </si>
   <si>
@@ -87,36 +78,18 @@
     <t xml:space="preserve">Przekierowanie użytkownika do formularza email sklepu </t>
   </si>
   <si>
-    <t>Wyświetlenie się strony zawierającej tylko opis posiadanych przez sklep shirt'ów</t>
-  </si>
-  <si>
     <t>Sprawdzenie działania lupki przy wpisywaniu błędnych danych (np. cyfr, znaków specjalnych)</t>
   </si>
   <si>
-    <t>Przekierowanie ze strony głównej do koszyka użytkownika</t>
-  </si>
-  <si>
-    <t>Celem testu jest sprawdzenie możliwości wejścia ze strony głównej w koszyk użytkownika</t>
-  </si>
-  <si>
     <t>ANA003</t>
   </si>
   <si>
     <t>ANA004</t>
   </si>
   <si>
-    <t>Celem testu jest sprawdzenie możliwości powortu z każdego miejsca aplikacji do strony głównej poprzez kliknięcie napisu "Generic Shop"</t>
-  </si>
-  <si>
     <t>Kliknięcie w napis "Generic Shop"</t>
   </si>
   <si>
-    <t>Przekierowanie użytkownika do strony głównej</t>
-  </si>
-  <si>
-    <t>Użytkownik został przekierowany do strony głównej</t>
-  </si>
-  <si>
     <t>Pozytywny</t>
   </si>
   <si>
@@ -144,15 +117,9 @@
     <t>Użytkownik został przekierowany do strony sklepu</t>
   </si>
   <si>
-    <t>Celem testów jest sprawdzenie, czy poszczególne ikony/linki zamieszczone na stronie głównej lub w podstronach przekierowują do docelowych stron/podstron</t>
-  </si>
-  <si>
     <t>Przekierowanie użytkownika z pustego koszyka na stronę sklepu</t>
   </si>
   <si>
-    <t>Przekierowanie z podstrony sklepu na stronę główną aplikacji przez kliknięcie napisu "Generic Shop"</t>
-  </si>
-  <si>
     <t>Zalogowany użytkownik będący na podstronie sklepu, np..: http://skleptest.pl/shop/</t>
   </si>
   <si>
@@ -165,24 +132,9 @@
     <t>Kliknięcie w pole "SHOP"</t>
   </si>
   <si>
-    <t>Przekierowanie użytkownika ze strony głównej na podstronę "SHOP"</t>
-  </si>
-  <si>
-    <t>Celem testu jest sprawdzenie poprawności działania linku przekierowującego ze strony głównej sklepu na podstronę "SHOP"</t>
-  </si>
-  <si>
     <t>Przekierowanie użytkownika do strony "SHOP"</t>
   </si>
   <si>
-    <t>Pozostanie na stronie głównej - strona "SHOP" nie otworzyła się</t>
-  </si>
-  <si>
-    <t>Przekierowanie użytkownika ze strony głównej na podstronę "MOST WANTED"</t>
-  </si>
-  <si>
-    <t>Celem testu jest sprawdzenie poprawności działania linku przekierowującego ze strony głównej sklepu na podstronę "MOST WANTED"</t>
-  </si>
-  <si>
     <t>Kliknięcie w pole "MOST WANTED"</t>
   </si>
   <si>
@@ -195,9 +147,6 @@
     <t>Przekierowanie użytkownika ze strony głównej na podstronę "ABOUT US"</t>
   </si>
   <si>
-    <t>Celem testu jest sprawdzenie poprawności działania linku przekierowującego ze strony głównej sklepu na podstronę "ABOUT US"</t>
-  </si>
-  <si>
     <t>Kliknięcie w pole "ABOUT US"</t>
   </si>
   <si>
@@ -205,12 +154,6 @@
   </si>
   <si>
     <t>Użytkownik został przekierowany na podstronę "CONTACT"</t>
-  </si>
-  <si>
-    <t>Przekierowanie użytkownika ze strony głównej na podstronę "CONTACT"</t>
-  </si>
-  <si>
-    <t>Celem testu jest sprawdzenie poprawności działania linku przekierowującego ze strony głównej sklepu na podstronę "CONTACT"</t>
   </si>
   <si>
     <t>Kliknięcie w pole "CONTACT"</t>
@@ -275,9 +218,6 @@
     <t>Lista kategorii produktów rozwinęła się</t>
   </si>
   <si>
-    <t>Sprawdzanie działania ikon/linków na stronie głównej oraz w podstronach przekierowujących na stronę główną sklepu lub na poszczególne podstrony</t>
-  </si>
-  <si>
     <t>Kliknięcie w lewym górnym rogu w ikonę maila lub w nazwę maila skleptestarmy@gmail.com</t>
   </si>
   <si>
@@ -302,15 +242,6 @@
     <t>Nie wpisywanie nic w puste pole "Search…" i wciśnięcie ikonki lupki celem wyszukania</t>
   </si>
   <si>
-    <t>Brak reakcji ze strony aplikacji - użytkownik zostaje na stronie głównej</t>
-  </si>
-  <si>
-    <t>Celem testu jest sprawdzenie czy lupka przy braku wpisania wyszukiwanej rzeczy zignoruje polecenie szukania i pozostawi użytkownika na stronie głównej</t>
-  </si>
-  <si>
-    <t>Przeniesienie użytkownika do strony z wyszukanymi rezultatami</t>
-  </si>
-  <si>
     <t>ANA005</t>
   </si>
   <si>
@@ -339,13 +270,676 @@
   </si>
   <si>
     <t>1.</t>
+  </si>
+  <si>
+    <t>Sprawdzenie działania funkcjonalności koszyka</t>
+  </si>
+  <si>
+    <t>ANA014</t>
+  </si>
+  <si>
+    <t>Przeniesienie użytkownika do strony bloga</t>
+  </si>
+  <si>
+    <t>Przekierowanie użytkownika z jednej z podstron na podstronę "SHOP"</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie poprawności działania linku przekierowującego na podstronę "SHOP"</t>
+  </si>
+  <si>
+    <t>Użytkownik został przekierowany na stronę "SHOP"</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie możliwości dodania produktu do koszyka i wyświetlenie aktualnej zawartości koszyka</t>
+  </si>
+  <si>
+    <t>• Zalogowany użytkownik będący na podstronie sklepu z produktami do kupienia np..: http://skleptest.pl/product-category/shirts/
+• Pusty koszyk</t>
+  </si>
+  <si>
+    <t>Dodanie produktu do koszyka z podstrony product-category</t>
+  </si>
+  <si>
+    <t>Przekierowanie z ekranu powitalnego sklepu do formularza email sklepu</t>
+  </si>
+  <si>
+    <t>Celem testu jest przeniesienie użytkownika z ekranu powitalnego sklepu do formularza email poprzez kliknięcie na ikonę lub nazwę email</t>
+  </si>
+  <si>
+    <t>Pozostanie na ekranie powitalnym sklepu - formularz nie otworzył się</t>
+  </si>
+  <si>
+    <t>Zalogowany użytkownik będący na ekranie powitalnym sklepu http://skleptest.pl/</t>
+  </si>
+  <si>
+    <t>Zalogowany użytkownik będący na podstronie sklepu np.: http://skleptest.pl/product-category/featured/</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie czy lupka przy braku wpisania wyszukiwanej rzeczy zignoruje polecenie szukania i pozostawi użytkownika na ekranie powitalnym sklepu</t>
+  </si>
+  <si>
+    <t>Brak reakcji ze strony aplikacji - użytkownik zostaje na ekranie powitalnym sklepu</t>
+  </si>
+  <si>
+    <t>Przekierowanie z ekranu powitalnego sklepu do koszyka użytkownika</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie możliwości wejścia z ekranu powitalnego w koszyk użytkownika</t>
+  </si>
+  <si>
+    <t>Przekierowanie z podstrony sklepu na ekran powitalny aplikacji poprzez kliknięcie napisu "Generic Shop"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celem testu jest sprawdzenie możliwości powortu z każdego miejsca aplikacji do ekranu powitalnego poprzez kliknięcie napisu "Generic Shop" </t>
+  </si>
+  <si>
+    <t>Przekierowanie użytkownika do ekranu powitalnego sklepu</t>
+  </si>
+  <si>
+    <t>Użytkownik został przekierowany do ekranu powitalnego sklepu</t>
+  </si>
+  <si>
+    <t>Brak możliwości wykonania testu z ekranu powitalnego sklepu,ponieważ ekran powitalny i podstrona SHOP są takie same</t>
+  </si>
+  <si>
+    <t>Przekierowanie użytkownika z ekranu powitalnego sklepu na podstronę "MOST WANTED"</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie poprawności działania linku przekierowującego z ekranu powitalnego sklepu na podstronę "MOST WANTED"</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie poprawności działania linku przekierowującego z ekranu powitalnego sklepu na podstronę "ABOUT US"</t>
+  </si>
+  <si>
+    <t>Przekierowanie użytkownika z ekranu powitalnego sklepu na podstronę "CONTACT"</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie poprawności działania linku przekierowującego z ekranu powitalnego sklepu na podstronę "CONTACT"</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie możliwości dodania kilku sztuk tego samego produktu do koszyka i wyświetlenie aktualnej zawartości koszyka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Wejście w wybrany produkt klikając w podświetlony link (Alani T-shirt)
+2) Wartość domyślna ilości wybranego produktu na stronie to "-9999", konieczność manualnego ustawienia ilości "1" a następnie wybranie ilości 3 sztuk poprzez naciskanie "+" i dodanie ich do koszyka "Add to cart"
+3) Przejście do koszyka poprzez naciśnięcie pola "View cart"
+</t>
+  </si>
+  <si>
+    <t>ANA015</t>
+  </si>
+  <si>
+    <t>ANA016</t>
+  </si>
+  <si>
+    <t>Usunięcie produktu z koszyka</t>
+  </si>
+  <si>
+    <t>Celem testu jest zmienjszenie lub zwiększenie ilości produktu w koszyku i sprawdzenie automatycznej aktualizcji cen w koszyku</t>
+  </si>
+  <si>
+    <t>Zmniejszenie lub zwiększenie ilości tego samego produktu w koszyku</t>
+  </si>
+  <si>
+    <t>• Zalogowany użytkownik będący na podstronie sklepu z produktami do kupienia np..: http://skleptest.pl/product-category/shirts/
+• Pusty koszyk
+• Domyślna ilość wybranego produktu "1"</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie poprawności działania przycisku "Usuń" oraz sprawdzenie automatycznej aktualizacji cen w koszyku</t>
+  </si>
+  <si>
+    <t>Dodanie do koszyka "0" ilości rzeczy</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie jak zareaguje kosz i aktualizacja cen przy wybraniu wartości "0" rzeczy</t>
+  </si>
+  <si>
+    <t>• Zalogowany użytkownik będący na podstronie sklepu z produktami do kupienia np..: http://skleptest.pl/product/alani-t-shirt/
+• Pusty koszyk</t>
+  </si>
+  <si>
+    <t>Pusty koszyk, cena w koszyku 0 zł</t>
+  </si>
+  <si>
+    <t>Ustawienie ilości wybranego produktu na "0",  kliknięcie w pole "Add to cart" a następnie "View cart"</t>
+  </si>
+  <si>
+    <t>Cena w koszyku 10 zł, ilość sztuk w koszyku - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Zalogowany użytkownik będący na podstronie koszyka sklepu: http://skleptest.pl/cart/
+• 3 sztuki tego samego produktu w koszyku
+</t>
+  </si>
+  <si>
+    <t>ANA018</t>
+  </si>
+  <si>
+    <t>ANA017</t>
+  </si>
+  <si>
+    <t>1) Usunięcie 2 sztuk z koszyka, aktualizacja ceny w koszyku i w polu koszyka w górnej prawej części strony sklepu
+2) Dodanie 2 sztuk do koszyka, aktualizacja ceny w koszyku i w polu koszyka w górnej prawej części strony sklepu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">• Zalogowany użytkownik będący na podstronie koszyka sklepu: http://skleptest.pl/cart/
+• 1 lub kilka sztuk tego samego produktu w koszyku
+</t>
+  </si>
+  <si>
+    <t>1) Wciśnięcie pod wybranym produktem (Alani T-shirt) przycisku "Add to cart"
+2) Automatyczna aktualizacja kwoty w koszyku po dodaniu produktu do koszyka
+3) Przekierowanie do strony koszyka po  kliknięciu w pole "View cart"</t>
+  </si>
+  <si>
+    <t>1)Pojawienie się opcji "View cart"
+2) Wyświetlenie się w prawym górnym rogu strony w koszyku aktualnej kwoty
+3) Użytkownik zostanie przekierowany do strony koszyka</t>
+  </si>
+  <si>
+    <t>1) Po wciśnięciu "Add to cart" pod wybranym produktem pojawiła się opcja "View cart"
+2) Brak aktualnej kwoty w koszyku
+3) Brak przekierowania użytkownika do strony koszyka po kliknięciu w pole "View cart"</t>
+  </si>
+  <si>
+    <t>1) Wyświetlenie się strony z opisem produktu i polem z możliwością wybrania konkretnej ilości sztuk produktu
+2)  Automatyczna aktualizacja kwoty w koszyku w prawym górnym roku strony i wyświetlenie się opcji "View cart" przekierowującej do strony koszyka 
+3) Przekierowanie użytkownika do strony koszyka</t>
+  </si>
+  <si>
+    <t>1) Pole z opisem produktu wyśwetliło się, jest pole z mośliwością wybrania ilości sztuk produktu
+2) Kwota w koszyku na górze strony zaktualizowała się, wyświetliła się opcja "View cart"
+3) Użytkownik został przekierowany do strony koszyka</t>
+  </si>
+  <si>
+    <t>1) Usunięto 2 sztuki z koszyka, zaktualizowano cenę w koszyku, brak aktualizacji ceny  w polu koszyka w górnej prawej części strony sklepu
+2) Brak możliwości dodania sztuk do koszyka, brak przycisków +/-</t>
+  </si>
+  <si>
+    <t>Usunięcie wszystkich rzeczy z koszyka poprzez kliknięcie w przycisk "Usuń" (czerwone kółko z krzyżykiem)</t>
+  </si>
+  <si>
+    <t>Rzeczy z koszyka nie zostały usunięte, ceny pozostały, przycisk "Usuń" nie działa</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>ANA019</t>
+  </si>
+  <si>
+    <t>Warunek końcowy</t>
+  </si>
+  <si>
+    <t>Sprawdzenie działania filtrów sortowania</t>
+  </si>
+  <si>
+    <t>Celem testów jest sprawdzenie czy produkty można posortować wg wyboru użytkownika</t>
+  </si>
+  <si>
+    <t>Sortowanie rzeczy na stronie wszystkich produktów w sklepie</t>
+  </si>
+  <si>
+    <t>Sortowanie rzeczy na stronie z jednym rodzajem produktu</t>
+  </si>
+  <si>
+    <t>Zalogowany użytkownik na stronie sklepu: wszystkie kategorie
+http://skleptest.pl/shop/</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie czy podane opcje sortowania na stronie głównej sklepu działaja poprawnie</t>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie czy podane opcje sortowania na stronie z wybraną kategorią działaja poprawnie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Odnalezienie pola filtra z zaznaczoną opcą sortowania: default sorting
+2) Zmiana opcji sortowania na: sort by popularity
+3) Zmiana opcji sortowania na: sort by average rating
+4) Zmiana opcji sortowania na: sort by newness
+5) Zmiana opcji sortowania na: sort by price: low to high
+6) Zmiana opcji sortowania na: sort by price: high to low
+7) Powrót do opcji sortowania: default sorting
+</t>
+  </si>
+  <si>
+    <t>Zalogowany użytkownik na podstronie sklepu: kategorie - SHIRTS
+http://skleptest.pl/product-category/shirts/</t>
+  </si>
+  <si>
+    <t>1) Widoczne pole filtra z napisem: default sorting; produkty na stronie ustawione domyślnie 
+2) Zmiana ustawień produktów na stronie ze względu na popularność produktu
+3) Zmiana ustawień produktów na stronie ze względu na średnią ocenę
+4) Zmiana ustawień produktów na stronie ze względu na nowość produktu
+5) Zmiana ustawień produktów na stronie ze względu na cenę: od najniższej do najwyższej
+6) Zmiana ustawień produktów na stronie ze względu na cenę: od najwyższej do najniższej
+7) Zmiana ustawień produktów na stronie na domyślne, takie same jak przy pierwszym wejściu na stronę</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) Widoczne pole filtra z napisem: default sorting; produkty na stronie ustawione domyślnie 
+2) Zmiana ustawień produktów na stronie ze względu na popularność produktu (nie dotyczy folderów z produktami)
+3) Zmiana ustawień produktów na stronie ze względu na średnią ocenę (nie dotyczy folderów z produktami)
+4) Zmiana ustawień produktów na stronie ze względu na nowość produktu (nie dotyczy folderów z produktami)
+5) Zmiana ustawień produktów na stronie ze względu na cenę: od najniższej do najwyższej (nie dotyczy folderów z produktami)
+6) Zmiana ustawień produktów na stronie ze względu na cenę: od najwyższej do najniższej (nie dotyczy folderów z produktami)
+7) Zmiana ustawień produktów na stronie na domyślne, takie same jak przy pierwszym wejściu na stronę </t>
+  </si>
+  <si>
+    <t>ANA020</t>
+  </si>
+  <si>
+    <t>1) Napis w polu filtra niewidoczny - podświetla się dopiero po najechaniu na niego (dotyczy wszystkich napisów)
+2) Produkty na stronie ustawiły się w innej kolejności
+3) Produkty na stronie ustawiły się w innej kolejności
+4) Produkty na stronie ustawiły się w innej kolejności
+5) Produkty na stronie nie zmieniły położenia, ceny są wymieszane
+6) Produkty na stronie nie zmieniły położenia, ceny są wymieszane
+7) Produkty na stronie zmieniły ułożenie na domyślne, takie samo jak przy pierwszym wejściu na stronę</t>
+  </si>
+  <si>
+    <t>Sprawdzenie poprawności przydzielenia produktów pod wymienione kategorie</t>
+  </si>
+  <si>
+    <t>ANA021</t>
+  </si>
+  <si>
+    <t>Na stronie wyświetliła się oferta samych  jeansów</t>
+  </si>
+  <si>
+    <t>Na stronie wyświetliła się oferta samych sukienek/spódnic</t>
+  </si>
+  <si>
+    <t>Na stronie wyświetliła się oferta samych swetrów/bluz</t>
+  </si>
+  <si>
+    <t>Na stronie wyświetliły się sukienki</t>
+  </si>
+  <si>
+    <t>Na stronie oprócz butów  znajduje się sweter i koszulki</t>
+  </si>
+  <si>
+    <t>Na stronie wyświetliła się oferta samych szali</t>
+  </si>
+  <si>
+    <t>Na stronie wyświetliła się oferta modnych ubrań</t>
+  </si>
+  <si>
+    <t>Na stronie wyświetliła się oferta wyróżnionych ubrań</t>
+  </si>
+  <si>
+    <t>Na stronie wyświetliła się oferta samych koszulek</t>
+  </si>
+  <si>
+    <t>Na stronie wyświetliła się oferta wszystkich kategorii oraz poszczególnych produktów</t>
+  </si>
+  <si>
+    <t>Brak zdjęć do niektórych pozycji</t>
+  </si>
+  <si>
+    <t>Brak 1 zdjęcia</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) Pozytywny
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>2) Negatywny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>3) Negatywny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) Pozytywny
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>2) Negatywny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+3) Pozytywny
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>1) Negatywny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>2) Negatywny</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>1) Negatywny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+2) Pozytywny
+3) Pozytywny
+4) Pozytywny
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+5) Negatywny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>6) Negatywny</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+7) Pozytywny</t>
+    </r>
+  </si>
+  <si>
+    <t>Celem testu jest sprawdzenie czy w wymienionej kategorii znajdują się poprawnie wyselekcjonowane rzeczy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wybranie na stronie powitalnej sklepu kategorii ALL 
+http://skleptest.pl/shop/
+</t>
+  </si>
+  <si>
+    <t>Wyświetlenie się na stronie folderów wszystkich kategorii oraz poszczególnych produktów wraz ze zdjęciemi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wybranie na stronie powitalnej sklepu kategorii SHIRTS 
+http://skleptest.pl/product-category/shirts/
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wybranie na stronie powitalnej sklepu kategorii FEATURED
+http://skleptest.pl/product-category/featured/
+</t>
+  </si>
+  <si>
+    <t>Wyświetlenie się na stronie oferty wyróżnionych ubrań</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wybranie na stronie powitalnej sklepu kategorii TRENDS 
+http://skleptest.pl/product-category/trends/
+</t>
+  </si>
+  <si>
+    <t>Wyświetlenie się na stronie oferty modnych ubrań</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wybranie na stronie powitalnej sklepu kategorii SCARFS
+http://skleptest.pl/product-category/scarfs/
+</t>
+  </si>
+  <si>
+    <t>Wyświetlenie się na stronie oferty szali</t>
+  </si>
+  <si>
+    <t>Wyświetlenie się na stronie oferty koszulek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wybranie na stronie powitalnej sklepu kategorii SHOES
+http://skleptest.pl/product-category/shoes/
+</t>
+  </si>
+  <si>
+    <t>Wyświetlenie się na stronie oferty butów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wybranie na stronie powitalnej sklepu kategorii TOPS 
+http://skleptest.pl/product-category/tops/
+</t>
+  </si>
+  <si>
+    <t>Wyświetlenie się na stronie oferty topów</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wybranie na stronie powitalnej sklepu kategorii BLOUSE
+http://skleptest.pl/product-category/blouse/
+</t>
+  </si>
+  <si>
+    <t>Wyświetlenie się na stronie oferty bluz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wybranie na stronie powitalnej sklepu kategorii JEANS
+http://skleptest.pl/product-category/jeans/
+</t>
+  </si>
+  <si>
+    <t>Wyświetlenie się na stronie oferty jeansów</t>
+  </si>
+  <si>
+    <t>Wyświetlenie się na stronie oferty sukienek/spódnic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wybranie na stronie powitalnej sklepu kategorii DRESSES
+http://skleptest.pl/product-category/dresses/
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>Zalogowany użytkownik na stronie powitalnej sklepu</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <family val="2"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Czcionka tekstu podstawowego"/>
+        <charset val="238"/>
+      </rPr>
+      <t>http://skleptest.pl</t>
+    </r>
+  </si>
+  <si>
+    <t>Celem testów jest sprawdzenie, czy poszczególne ikony/linki zamieszczone na stronie powitalnej aplikacji lub w podstronach przekierowują do docelowych stron/podstron</t>
+  </si>
+  <si>
+    <t>Celem testów jest sprawdzenie poprawności działania koszyka podczas robienia zakupów</t>
+  </si>
+  <si>
+    <t>Celem testów jest sprawdzenie czy w konkretnej kategorii produktów znajduje się prawidłowo wyselekcjonowana grupa produktów</t>
+  </si>
+  <si>
+    <t>Otworzenie formularza email</t>
+  </si>
+  <si>
+    <t>ANA022</t>
+  </si>
+  <si>
+    <t>ANA023</t>
+  </si>
+  <si>
+    <t>ANA024</t>
+  </si>
+  <si>
+    <t>ANA025</t>
+  </si>
+  <si>
+    <t>ANA026</t>
+  </si>
+  <si>
+    <t>ANA027</t>
+  </si>
+  <si>
+    <t>ANA028</t>
+  </si>
+  <si>
+    <t>ANA029</t>
+  </si>
+  <si>
+    <t>ANA030</t>
+  </si>
+  <si>
+    <t>Sprawdzanie działania ikon/linków na stronie powitalnej aplikacji oraz w podstronach, przekierowujących na stronę powitalną sklepu lub na poszczególne podstrony</t>
+  </si>
+  <si>
+    <t>Dodanie określonej ilości tego samego produktu do koszyka ze strony konkretnego produktu</t>
+  </si>
+  <si>
+    <t>1) Usunięcie poprzez kliknięcie w  "-" 2 rzeczy z koszyka oraz manualna aktualizacja cen w koszyku poprzez kliknięcie w pole "Update cart"
+2) Dodanie poprzez kliknięcie w "+" 2 rzeczy do koszyka oraz manualna aktualizacja cen w koszyku poprzez kliknięcie "Update cart"</t>
+  </si>
+  <si>
+    <t>1) Napis w polu filtra niewidoczny - podświetla się dopiero po najechaniu na niego kursorem(dotyczy wszystkich napisów)
+2) Produkty na stronie ustawiły się w innej kolejności
+3) Produkty na stronie ustawiły się w innej kolejności
+4) Produkty na stronie ustawiły się w innej kolejności
+5) Produkty na stronie nie zmieniły położenia, ceny są wymieszane
+6) Produkty na stronie nie zmieniły położenia, ceny są wymieszane
+7) Produkty na stronie zmieniły ułożenie na domyślne, takie samo jak przy pierwszym wejściu na stronę</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +966,33 @@
       <name val="Czcionka tekstu podstawowego"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -381,7 +1002,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -392,7 +1013,9 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -404,7 +1027,27 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -415,47 +1058,251 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -748,467 +1595,1056 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
     <col min="3" max="4" width="18.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.875" style="1" customWidth="1"/>
     <col min="6" max="6" width="25.375" style="1" customWidth="1"/>
-    <col min="7" max="8" width="20.375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.75" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.125" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="7" max="7" width="41.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="25.125" style="1" customWidth="1"/>
+    <col min="9" max="10" width="15.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18.125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="30.75" thickBot="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:12" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="142.5">
-      <c r="A3" s="1">
+    <row r="3" spans="1:12" ht="171.75" thickTop="1">
+      <c r="A3" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="1:12" ht="85.5">
+      <c r="A4" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:12" ht="71.25">
+      <c r="A5" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="20"/>
+    </row>
+    <row r="6" spans="1:12" ht="100.5" thickBot="1">
+      <c r="A6" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickTop="1"/>
+    <row r="14" spans="1:12" ht="36.75" thickBot="1">
+      <c r="A14" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="15" spans="1:12" ht="31.5" thickTop="1" thickBot="1">
+      <c r="A15" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="17"/>
+    </row>
+    <row r="16" spans="1:12" ht="114.75" thickTop="1">
+      <c r="A16" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="1:12" ht="142.5">
+      <c r="A17" s="30"/>
+      <c r="B17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="17"/>
+    </row>
+    <row r="18" spans="1:12" ht="114">
+      <c r="A18" s="30"/>
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="17"/>
+    </row>
+    <row r="19" spans="1:12" ht="156.75">
+      <c r="A19" s="30"/>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="17"/>
+    </row>
+    <row r="20" spans="1:12" ht="85.5">
+      <c r="A20" s="30"/>
+      <c r="B20" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="17"/>
+    </row>
+    <row r="21" spans="1:12" ht="85.5">
+      <c r="A21" s="30"/>
+      <c r="B21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="17"/>
+    </row>
+    <row r="22" spans="1:12" ht="114">
+      <c r="A22" s="30"/>
+      <c r="B22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="17"/>
+    </row>
+    <row r="23" spans="1:12" ht="99.75">
+      <c r="A23" s="31"/>
+      <c r="B23" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="L23" s="17"/>
+    </row>
+    <row r="24" spans="1:12" ht="114">
+      <c r="A24" s="30"/>
+      <c r="B24" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="3"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="1:12" ht="142.5">
+      <c r="A25" s="32"/>
+      <c r="B25" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="3"/>
+      <c r="K25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="22"/>
+    </row>
+    <row r="26" spans="1:12" ht="114">
+      <c r="A26" s="30"/>
+      <c r="B26" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26" s="3"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="17"/>
+    </row>
+    <row r="27" spans="1:12" ht="114">
+      <c r="A27" s="30"/>
+      <c r="B27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="3"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="17"/>
+    </row>
+    <row r="28" spans="1:12" ht="114.75" thickBot="1">
+      <c r="A28" s="33"/>
+      <c r="B28" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="17"/>
+    </row>
+    <row r="29" spans="1:12" ht="157.5" thickTop="1">
+      <c r="A29" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="30">
-      <c r="A15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="114">
-      <c r="A16" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="C29" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="J29" s="9"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="17"/>
+    </row>
+    <row r="30" spans="1:12" ht="270.75">
+      <c r="A30" s="30"/>
+      <c r="B30" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="J30" s="3"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="17"/>
+    </row>
+    <row r="31" spans="1:12" ht="114">
+      <c r="A31" s="30"/>
+      <c r="B31" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="I31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="5"/>
-    </row>
-    <row r="17" spans="1:11" ht="142.5">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" ht="114">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="J31" s="3"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="17"/>
+    </row>
+    <row r="32" spans="1:12" ht="171">
+      <c r="A32" s="30"/>
+      <c r="B32" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="J32" s="3"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="17"/>
+    </row>
+    <row r="33" spans="1:12" ht="129" thickBot="1">
+      <c r="A33" s="33"/>
+      <c r="B33" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J33" s="10"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="17"/>
+    </row>
+    <row r="34" spans="1:12" ht="409.5" customHeight="1" thickTop="1">
+      <c r="A34" s="29" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="J34" s="9"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="17"/>
+    </row>
+    <row r="35" spans="1:12" ht="409.6" thickBot="1">
+      <c r="A35" s="33"/>
+      <c r="B35" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="I35" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="J35" s="10"/>
+      <c r="K35" s="23"/>
+      <c r="L35" s="17"/>
+    </row>
+    <row r="36" spans="1:12" ht="100.5" thickTop="1">
+      <c r="A36" s="29" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>191</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I36" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" ht="142.5">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" ht="99.75">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:11" ht="85.5">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" ht="114">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" ht="114">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" ht="114">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="I24" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" ht="142.5">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" ht="114">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I26" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="6"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" ht="114">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" ht="114">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="9"/>
-    </row>
+      <c r="J36" s="9"/>
+      <c r="K36" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L36" s="17"/>
+    </row>
+    <row r="37" spans="1:12" ht="99.75">
+      <c r="A37" s="30"/>
+      <c r="B37" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E37" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="3"/>
+      <c r="K37" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="L37" s="17"/>
+    </row>
+    <row r="38" spans="1:12" ht="99.75">
+      <c r="A38" s="30"/>
+      <c r="B38" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="3"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="17"/>
+    </row>
+    <row r="39" spans="1:12" ht="99.75">
+      <c r="A39" s="30"/>
+      <c r="B39" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="3"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="17"/>
+    </row>
+    <row r="40" spans="1:12" ht="99.75">
+      <c r="A40" s="30"/>
+      <c r="B40" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E40" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="3"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="17"/>
+    </row>
+    <row r="41" spans="1:12" ht="99.75">
+      <c r="A41" s="30"/>
+      <c r="B41" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E41" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J41" s="3"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="17"/>
+    </row>
+    <row r="42" spans="1:12" ht="99.75">
+      <c r="A42" s="30"/>
+      <c r="B42" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J42" s="3"/>
+      <c r="K42" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="L42" s="17"/>
+    </row>
+    <row r="43" spans="1:12" ht="99.75">
+      <c r="A43" s="30"/>
+      <c r="B43" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="3"/>
+      <c r="K43" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="L43" s="17"/>
+    </row>
+    <row r="44" spans="1:12" ht="99.75">
+      <c r="A44" s="30"/>
+      <c r="B44" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>191</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="3"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="17"/>
+    </row>
+    <row r="45" spans="1:12" ht="100.5" thickBot="1">
+      <c r="A45" s="33"/>
+      <c r="B45" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="E45" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="I45" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="10"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="17"/>
+    </row>
+    <row r="46" spans="1:12" ht="15" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
